--- a/sample.xlsx
+++ b/sample.xlsx
@@ -2734,7 +2734,11 @@
         </is>
       </c>
       <c r="X10" s="16" t="inlineStr"/>
-      <c r="Y10" s="16" t="n"/>
+      <c r="Y10" s="16" t="inlineStr">
+        <is>
+          <t>2023-01-16 16:44:28 (bot) : Updated by bot at this time</t>
+        </is>
+      </c>
       <c r="Z10" s="20" t="inlineStr">
         <is>
           <t>Installed</t>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1687,9 +1687,9 @@
   </sheetPr>
   <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.1796875" defaultRowHeight="14"/>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="F10" s="22" t="inlineStr">
         <is>
-          <t>https://docs.fortinet.com/document/fortigate/7.0.9/fortios-release-notes/553516/change-log</t>
+          <t>https://docs.fortinet.com/document/fortigate/7.2.3/fortios-release-notes/553516/change-log</t>
         </is>
       </c>
       <c r="G10" s="17" t="n">
@@ -2691,17 +2691,17 @@
       </c>
       <c r="L10" s="16" t="inlineStr">
         <is>
-          <t>7.0.9</t>
+          <t>7.2.3</t>
         </is>
       </c>
       <c r="M10" s="17" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="N10" s="17" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="O10" s="16" t="inlineStr">
@@ -2736,7 +2736,7 @@
       <c r="X10" s="16" t="inlineStr"/>
       <c r="Y10" s="16" t="inlineStr">
         <is>
-          <t>2023-01-16 16:44:28 (bot) : Updated by bot at this time</t>
+          <t>2023-01-17 14:12:22 (bot) : Updated by bot at this time</t>
         </is>
       </c>
       <c r="Z10" s="20" t="inlineStr">

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -18,7 +18,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -55,6 +55,12 @@
       <color theme="10"/>
       <sz val="11"/>
       <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1685,11 +1691,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z23"/>
+  <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.1796875" defaultRowHeight="14"/>
@@ -2667,7 +2673,7 @@
       </c>
       <c r="F10" s="22" t="inlineStr">
         <is>
-          <t>https://docs.fortinet.com/document/fortigate/7.2.3/fortios-release-notes/553516/change-log</t>
+          <t>https://support.fortinet.com/Information/ProductLifeCycle.aspx</t>
         </is>
       </c>
       <c r="G10" s="17" t="n">
@@ -2691,18 +2697,14 @@
       </c>
       <c r="L10" s="16" t="inlineStr">
         <is>
-          <t>7.2.3</t>
-        </is>
-      </c>
-      <c r="M10" s="17" t="inlineStr">
-        <is>
-          <t>2022-11-10</t>
-        </is>
-      </c>
-      <c r="N10" s="17" t="inlineStr">
-        <is>
-          <t>2022-11-10</t>
-        </is>
+          <t>7.0.8</t>
+        </is>
+      </c>
+      <c r="M10" s="17" t="n">
+        <v>44847</v>
+      </c>
+      <c r="N10" s="17" t="n">
+        <v>44847</v>
       </c>
       <c r="O10" s="16" t="inlineStr">
         <is>
@@ -2734,11 +2736,7 @@
         </is>
       </c>
       <c r="X10" s="16" t="inlineStr"/>
-      <c r="Y10" s="16" t="inlineStr">
-        <is>
-          <t>2023-01-17 14:12:22 (bot) : Updated by bot at this time</t>
-        </is>
-      </c>
+      <c r="Y10" s="16" t="n"/>
       <c r="Z10" s="20" t="inlineStr">
         <is>
           <t>Installed</t>
@@ -2880,7 +2878,7 @@
       </c>
       <c r="F12" s="8" t="inlineStr">
         <is>
-          <t>https://support.fortinet.com/Information/ProductLifeCycle.aspx</t>
+          <t>https://docs.fortinet.com/document/fortianalyzer/7.0.5/release-notes/441895/change-log</t>
         </is>
       </c>
       <c r="G12" s="9" t="n">
@@ -2907,8 +2905,10 @@
           <t>7.0.5</t>
         </is>
       </c>
-      <c r="M12" s="17" t="n">
-        <v>44847</v>
+      <c r="M12" s="17" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
       </c>
       <c r="N12" s="17" t="n">
         <v>44847</v>
@@ -2956,6 +2956,11 @@
       <c r="Z12" s="10" t="inlineStr">
         <is>
           <t>Installed</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-01-17 17:03:08 (bot) : Updated by bot at this time</t>
         </is>
       </c>
     </row>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -2673,7 +2673,7 @@
       </c>
       <c r="F10" s="22" t="inlineStr">
         <is>
-          <t>https://support.fortinet.com/Information/ProductLifeCycle.aspx</t>
+          <t>https://docs.fortinet.com/document/fortigate/7.0.9/fortios-release-notes/553516/change-log</t>
         </is>
       </c>
       <c r="G10" s="17" t="n">
@@ -2697,11 +2697,13 @@
       </c>
       <c r="L10" s="16" t="inlineStr">
         <is>
-          <t>7.0.8</t>
-        </is>
-      </c>
-      <c r="M10" s="17" t="n">
-        <v>44847</v>
+          <t>7.0.9</t>
+        </is>
+      </c>
+      <c r="M10" s="17" t="inlineStr">
+        <is>
+          <t>2022-11-22</t>
+        </is>
       </c>
       <c r="N10" s="17" t="n">
         <v>44847</v>
@@ -2740,6 +2742,11 @@
       <c r="Z10" s="20" t="inlineStr">
         <is>
           <t>Installed</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2023-01-17 17:12:55 (bot) : Updated by bot at this time</t>
         </is>
       </c>
     </row>
@@ -2878,7 +2885,7 @@
       </c>
       <c r="F12" s="8" t="inlineStr">
         <is>
-          <t>https://docs.fortinet.com/document/fortianalyzer/7.0.5/release-notes/441895/change-log</t>
+          <t>https://support.fortinet.com/Information/ProductLifeCycle.aspx</t>
         </is>
       </c>
       <c r="G12" s="9" t="n">
@@ -2905,10 +2912,8 @@
           <t>7.0.5</t>
         </is>
       </c>
-      <c r="M12" s="17" t="inlineStr">
-        <is>
-          <t>2022-10-13</t>
-        </is>
+      <c r="M12" s="17" t="n">
+        <v>44847</v>
       </c>
       <c r="N12" s="17" t="n">
         <v>44847</v>
@@ -2956,11 +2961,6 @@
       <c r="Z12" s="10" t="inlineStr">
         <is>
           <t>Installed</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>2023-01-17 17:03:08 (bot) : Updated by bot at this time</t>
         </is>
       </c>
     </row>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -2673,7 +2673,7 @@
       </c>
       <c r="F10" s="22" t="inlineStr">
         <is>
-          <t>https://docs.fortinet.com/document/fortigate/7.0.9/fortios-release-notes/553516/change-log</t>
+          <t>https://support.fortinet.com/Information/ProductLifeCycle.aspx</t>
         </is>
       </c>
       <c r="G10" s="17" t="n">
@@ -2697,13 +2697,11 @@
       </c>
       <c r="L10" s="16" t="inlineStr">
         <is>
-          <t>7.0.9</t>
-        </is>
-      </c>
-      <c r="M10" s="17" t="inlineStr">
-        <is>
-          <t>2022-11-22</t>
-        </is>
+          <t>7.0.8</t>
+        </is>
+      </c>
+      <c r="M10" s="17" t="n">
+        <v>44847</v>
       </c>
       <c r="N10" s="17" t="n">
         <v>44847</v>
@@ -2742,11 +2740,6 @@
       <c r="Z10" s="20" t="inlineStr">
         <is>
           <t>Installed</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>2023-01-17 17:12:55 (bot) : Updated by bot at this time</t>
         </is>
       </c>
     </row>
@@ -2992,7 +2985,7 @@
       </c>
       <c r="F13" s="22" t="inlineStr">
         <is>
-          <t>https://support.fortinet.com/Information/ProductLifeCycle.aspx</t>
+          <t>https://docs.fortinet.com/document/fortimanager/7.0.5/release-notes/441895/change-log</t>
         </is>
       </c>
       <c r="G13" s="9" t="n">
@@ -3019,8 +3012,10 @@
           <t>7.0.5</t>
         </is>
       </c>
-      <c r="M13" s="17" t="n">
-        <v>44847</v>
+      <c r="M13" s="17" t="inlineStr">
+        <is>
+          <t>2022-10-13</t>
+        </is>
       </c>
       <c r="N13" s="17" t="n">
         <v>44847</v>
@@ -3068,6 +3063,11 @@
       <c r="Z13" s="10" t="inlineStr">
         <is>
           <t>Installed</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2023-01-30 19:25:55 (bot) : Updated by bot at this time</t>
         </is>
       </c>
     </row>
